--- a/biology/Médecine/Institut_thoracique_de_Montréal/Institut_thoracique_de_Montréal.xlsx
+++ b/biology/Médecine/Institut_thoracique_de_Montréal/Institut_thoracique_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_thoracique_de_Montr%C3%A9al</t>
+          <t>Institut_thoracique_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Institut thoracique de Montréal (en anglais : Montreal Chest Institute) est un institut montréalais de recherche sur les maladies respiratoires et secteurs connexes. On le retrouve sur le boulevard Décarie à Montréal. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_thoracique_de_Montr%C3%A9al</t>
+          <t>Institut_thoracique_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert en 1903, l'Institut thoracique de Montréal a porté différents noms au cours des divers stades de son évolution. En 1903, il a été créé sous le nom de Société contre la tuberculose de Montréal en réaction à la terrible épidémie de tuberculose qui fauchait 12 000 vies par année au Québec. 
 Dès les premières années de son existence, l'Institut fournissait des initiatives d'éducation publique et des programmes scolaires ainsi que des services hospitaliers aux personnes atteintes de tuberculose. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_thoracique_de_Montr%C3%A9al</t>
+          <t>Institut_thoracique_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de Montréal   Portail de la médecine   Portail des soins infirmiers   Portail de l'éducation au Québec                  </t>
